--- a/Statistica Licenta.xlsx
+++ b/Statistica Licenta.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INFO\Faculta\Licenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118FE733-BF48-496A-AD08-C9A8051275ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A4FB21-EBEA-4683-AEE7-FA81BB50EDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{239CAF2D-A66C-4D15-ADBC-BC4035617211}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{239CAF2D-A66C-4D15-ADBC-BC4035617211}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Regresie Liniara" sheetId="2" r:id="rId2"/>
     <sheet name="Regresie Polinomiala" sheetId="3" r:id="rId3"/>
+    <sheet name="Arbori de decizie" sheetId="4" r:id="rId4"/>
+    <sheet name="SVR" sheetId="5" r:id="rId5"/>
+    <sheet name="Regresie Poisson " sheetId="6" r:id="rId6"/>
+    <sheet name="Random Forest" sheetId="7" r:id="rId7"/>
+    <sheet name="Gradient Boosting" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Regresie Liniara'!$A$1:$K$6</definedName>
@@ -42,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="31">
   <si>
     <t>metoda</t>
   </si>
@@ -117,6 +122,24 @@
   </si>
   <si>
     <t>B365H,B365D,B365A</t>
+  </si>
+  <si>
+    <t>mape</t>
+  </si>
+  <si>
+    <t>MSE - MIN MAX</t>
+  </si>
+  <si>
+    <t>max_depth</t>
+  </si>
+  <si>
+    <t>MultiOutput</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>NU</t>
   </si>
 </sst>
 </file>
@@ -499,7 +522,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="A2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,7 +647,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +655,7 @@
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
@@ -653,7 +676,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -755,31 +778,31 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>1.8580229952931401E-2</v>
+        <v>1.8586440011858898E-2</v>
       </c>
       <c r="E4">
-        <v>0.106874056160449</v>
+        <v>0.10741651058197001</v>
       </c>
       <c r="F4">
-        <v>0.13630098104476901</v>
+        <v>0.13633202016353599</v>
       </c>
       <c r="G4">
-        <v>0.12574371695518399</v>
+        <v>0.129161477088928</v>
       </c>
       <c r="H4">
-        <v>0.88357937335967995</v>
+        <v>0.88301032781600897</v>
       </c>
       <c r="I4">
-        <v>0.73676621913909901</v>
+        <v>0.740373134613037</v>
       </c>
       <c r="J4">
-        <v>0.93974256515502896</v>
+        <v>0.93968045711517301</v>
       </c>
       <c r="K4">
-        <v>0.12574458122253401</v>
+        <v>0.12916165590286199</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -790,31 +813,31 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>1.8586440011858898E-2</v>
+        <v>1.8580229952931401E-2</v>
       </c>
       <c r="E5">
-        <v>0.10741651058197001</v>
+        <v>0.106874056160449</v>
       </c>
       <c r="F5">
-        <v>0.13633202016353599</v>
+        <v>0.13630098104476901</v>
       </c>
       <c r="G5">
-        <v>0.129161477088928</v>
+        <v>0.12574371695518399</v>
       </c>
       <c r="H5">
-        <v>0.88301032781600897</v>
+        <v>0.88357937335967995</v>
       </c>
       <c r="I5">
-        <v>0.740373134613037</v>
+        <v>0.73676621913909901</v>
       </c>
       <c r="J5">
-        <v>0.93968045711517301</v>
+        <v>0.93974256515502896</v>
       </c>
       <c r="K5">
-        <v>0.12916165590286199</v>
+        <v>0.12574458122253401</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -925,7 +948,7 @@
   </sheetData>
   <autoFilter ref="A1:K6" xr:uid="{BA3E7398-B101-4916-8B7D-6FD18F08C823}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K8">
-      <sortCondition ref="D1:D6"/>
+      <sortCondition ref="H1:H6"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -935,10 +958,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E2FB0D-8EEE-4299-81B3-0F50034371EB}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection sqref="A1:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,6 +979,1757 @@
     <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>1.8317874521017002E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.10622286796569801</v>
+      </c>
+      <c r="F2">
+        <v>0.13534022867679499</v>
+      </c>
+      <c r="G2">
+        <v>0.132096618413925</v>
+      </c>
+      <c r="H2">
+        <v>0.87238347530364901</v>
+      </c>
+      <c r="I2">
+        <v>0.72989773750305098</v>
+      </c>
+      <c r="J2">
+        <v>0.93390226364135698</v>
+      </c>
+      <c r="K2">
+        <v>0.12261226773262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>1.85307338833808E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.10691436380147901</v>
+      </c>
+      <c r="F3">
+        <v>0.13612756133079501</v>
+      </c>
+      <c r="G3">
+        <v>0.13177183270454401</v>
+      </c>
+      <c r="H3">
+        <v>0.89598459005355802</v>
+      </c>
+      <c r="I3">
+        <v>0.73833894729614202</v>
+      </c>
+      <c r="J3">
+        <v>0.94656276702880804</v>
+      </c>
+      <c r="K3">
+        <v>0.116368979215621</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>1.8600137904286301E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.10724975913763</v>
+      </c>
+      <c r="F4">
+        <v>0.13638225197792</v>
+      </c>
+      <c r="G4">
+        <v>0.12537509202957101</v>
+      </c>
+      <c r="H4">
+        <v>0.90286302566528298</v>
+      </c>
+      <c r="I4">
+        <v>0.74062442779541005</v>
+      </c>
+      <c r="J4">
+        <v>0.95019030570983798</v>
+      </c>
+      <c r="K4">
+        <v>0.10332053899764999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>1.8826968967914502E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.10745912790298399</v>
+      </c>
+      <c r="F5">
+        <v>0.13720998167991599</v>
+      </c>
+      <c r="G5">
+        <v>0.1346096098423</v>
+      </c>
+      <c r="H5">
+        <v>0.90531915426254195</v>
+      </c>
+      <c r="I5">
+        <v>0.74326837062835605</v>
+      </c>
+      <c r="J5">
+        <v>0.951471447944641</v>
+      </c>
+      <c r="K5">
+        <v>0.12540391087531999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>1.9181117415428099E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.107651688158512</v>
+      </c>
+      <c r="F6">
+        <v>0.13848517835140201</v>
+      </c>
+      <c r="G6">
+        <v>0.133815318346023</v>
+      </c>
+      <c r="H6">
+        <v>0.91462945938110296</v>
+      </c>
+      <c r="I6">
+        <v>0.74310398101806596</v>
+      </c>
+      <c r="J6">
+        <v>0.95623934268951405</v>
+      </c>
+      <c r="K6">
+        <v>0.130314141511917</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>1.9279558211565E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.106855116784572</v>
+      </c>
+      <c r="F7">
+        <v>0.13881292939185999</v>
+      </c>
+      <c r="G7">
+        <v>9.2986643314361503E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.93478578329086304</v>
+      </c>
+      <c r="I7">
+        <v>0.73801314830779996</v>
+      </c>
+      <c r="J7">
+        <v>0.96586596965789795</v>
+      </c>
+      <c r="K7">
+        <v>7.6315611600875799E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>1.93920582532882E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.10693166404962499</v>
+      </c>
+      <c r="F8">
+        <v>0.13920384645462</v>
+      </c>
+      <c r="G8">
+        <v>8.2790017127990695E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.94822251796722401</v>
+      </c>
+      <c r="I8">
+        <v>0.73577725887298495</v>
+      </c>
+      <c r="J8">
+        <v>0.97253477573394698</v>
+      </c>
+      <c r="K8">
+        <v>4.9799621105194002E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K8" xr:uid="{57E2FB0D-8EEE-4299-81B3-0F50034371EB}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K8">
+      <sortCondition ref="D1:D8"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19D84D4-BC37-494E-8C8A-9C83D7ED28FB}">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1.8728541983609098E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.107440785206319</v>
+      </c>
+      <c r="G2">
+        <v>0.136852263348506</v>
+      </c>
+      <c r="H2">
+        <v>0.112641454258394</v>
+      </c>
+      <c r="I2">
+        <v>0.88225880653181199</v>
+      </c>
+      <c r="J2">
+        <v>0.73731715761087702</v>
+      </c>
+      <c r="K2">
+        <v>0.93928632830027503</v>
+      </c>
+      <c r="L2">
+        <v>0.11264145417829199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1.88379962971153E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.10802289706251</v>
+      </c>
+      <c r="G3">
+        <v>0.13725158030826201</v>
+      </c>
+      <c r="H3">
+        <v>0.11736526618788901</v>
+      </c>
+      <c r="I3">
+        <v>0.89496987822779905</v>
+      </c>
+      <c r="J3">
+        <v>0.74455685983738296</v>
+      </c>
+      <c r="K3">
+        <v>0.94602847643598897</v>
+      </c>
+      <c r="L3">
+        <v>0.117365266314077</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1.9023150878814201E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.10879163717231401</v>
+      </c>
+      <c r="G4">
+        <v>0.137924439019392</v>
+      </c>
+      <c r="H4">
+        <v>0.10549966570462301</v>
+      </c>
+      <c r="I4">
+        <v>0.90067096269931701</v>
+      </c>
+      <c r="J4">
+        <v>0.74857055081704904</v>
+      </c>
+      <c r="K4">
+        <v>0.94903686055880698</v>
+      </c>
+      <c r="L4">
+        <v>0.10549966548752999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1.92357495810088E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.10895797902664101</v>
+      </c>
+      <c r="G5">
+        <v>0.138693004802004</v>
+      </c>
+      <c r="H5">
+        <v>0.11574456161532901</v>
+      </c>
+      <c r="I5">
+        <v>0.91521085828602899</v>
+      </c>
+      <c r="J5">
+        <v>0.75155806439793504</v>
+      </c>
+      <c r="K5">
+        <v>0.95666653452811301</v>
+      </c>
+      <c r="L5">
+        <v>0.115744562608392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1.9713645402508199E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.109170946641758</v>
+      </c>
+      <c r="G6">
+        <v>0.14040528979532099</v>
+      </c>
+      <c r="H6">
+        <v>0.10977120543628401</v>
+      </c>
+      <c r="I6">
+        <v>0.936236328112657</v>
+      </c>
+      <c r="J6">
+        <v>0.75228840791804796</v>
+      </c>
+      <c r="K6">
+        <v>0.96759305914865701</v>
+      </c>
+      <c r="L6">
+        <v>0.10977120572898701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1.8915040218209899E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.107803046996087</v>
+      </c>
+      <c r="G7">
+        <v>0.13753196071535501</v>
+      </c>
+      <c r="H7">
+        <v>0.110004514125744</v>
+      </c>
+      <c r="I7">
+        <v>0.89974372008711301</v>
+      </c>
+      <c r="J7">
+        <v>0.74329509946874595</v>
+      </c>
+      <c r="K7">
+        <v>0.94854821705968795</v>
+      </c>
+      <c r="L7">
+        <v>0.10980972982266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1.87264056582035E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.107509275763175</v>
+      </c>
+      <c r="G8">
+        <v>0.13684445790094499</v>
+      </c>
+      <c r="H8">
+        <v>0.114207766487779</v>
+      </c>
+      <c r="I8">
+        <v>0.88165954187855899</v>
+      </c>
+      <c r="J8">
+        <v>0.73672008021453494</v>
+      </c>
+      <c r="K8">
+        <v>0.93896727412544001</v>
+      </c>
+      <c r="L8">
+        <v>0.1152194328545</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>1.8728541983609098E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.107440785206319</v>
+      </c>
+      <c r="G9">
+        <v>0.136852263348506</v>
+      </c>
+      <c r="H9">
+        <v>0.112641454258394</v>
+      </c>
+      <c r="I9">
+        <v>0.88225880653181199</v>
+      </c>
+      <c r="J9">
+        <v>0.73731715761087702</v>
+      </c>
+      <c r="K9">
+        <v>0.93928632830027503</v>
+      </c>
+      <c r="L9">
+        <v>0.11264145417829199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>1.88379962971153E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.10802289706251</v>
+      </c>
+      <c r="G10">
+        <v>0.13725158030826201</v>
+      </c>
+      <c r="H10">
+        <v>0.11736526618788901</v>
+      </c>
+      <c r="I10">
+        <v>0.89496987822779905</v>
+      </c>
+      <c r="J10">
+        <v>0.74455685983738296</v>
+      </c>
+      <c r="K10">
+        <v>0.94602847643598897</v>
+      </c>
+      <c r="L10">
+        <v>0.117365266314077</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>1.9023150878814201E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.10879163717231401</v>
+      </c>
+      <c r="G11">
+        <v>0.137924439019392</v>
+      </c>
+      <c r="H11">
+        <v>0.10549966570462301</v>
+      </c>
+      <c r="I11">
+        <v>0.90067096269931701</v>
+      </c>
+      <c r="J11">
+        <v>0.74857055081704904</v>
+      </c>
+      <c r="K11">
+        <v>0.94903686055880698</v>
+      </c>
+      <c r="L11">
+        <v>0.10549966548752999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>1.92357495810088E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.10895797902664101</v>
+      </c>
+      <c r="G12">
+        <v>0.138693004802004</v>
+      </c>
+      <c r="H12">
+        <v>0.11574456161532901</v>
+      </c>
+      <c r="I12">
+        <v>0.91521085828602899</v>
+      </c>
+      <c r="J12">
+        <v>0.75155806439793504</v>
+      </c>
+      <c r="K12">
+        <v>0.95666653452811301</v>
+      </c>
+      <c r="L12">
+        <v>0.115744562608392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>1.9713645402508199E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.109170946641758</v>
+      </c>
+      <c r="G13">
+        <v>0.14040528979532099</v>
+      </c>
+      <c r="H13">
+        <v>0.10977120543628401</v>
+      </c>
+      <c r="I13">
+        <v>0.936236328112657</v>
+      </c>
+      <c r="J13">
+        <v>0.75228840791804796</v>
+      </c>
+      <c r="K13">
+        <v>0.96759305914865701</v>
+      </c>
+      <c r="L13">
+        <v>0.10977120572898701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>1.8915040218209899E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.107803046996087</v>
+      </c>
+      <c r="G14">
+        <v>0.13753196071535501</v>
+      </c>
+      <c r="H14">
+        <v>0.110004514125744</v>
+      </c>
+      <c r="I14">
+        <v>0.89974372008711301</v>
+      </c>
+      <c r="J14">
+        <v>0.74329509946874595</v>
+      </c>
+      <c r="K14">
+        <v>0.94854821705968795</v>
+      </c>
+      <c r="L14">
+        <v>0.10980972982266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>1.87264056582035E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.107509275763175</v>
+      </c>
+      <c r="G15">
+        <v>0.13684445790094499</v>
+      </c>
+      <c r="H15">
+        <v>0.114207766487779</v>
+      </c>
+      <c r="I15">
+        <v>0.88165954187855899</v>
+      </c>
+      <c r="J15">
+        <v>0.73672008021453494</v>
+      </c>
+      <c r="K15">
+        <v>0.93896727412544001</v>
+      </c>
+      <c r="L15">
+        <v>0.1152194328545</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3414E4-D01D-4FA6-AF67-FC3F04EBFFE2}">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2">
+        <v>1.8728374349896101E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.105114855286409</v>
+      </c>
+      <c r="G2">
+        <v>0.136851650884803</v>
+      </c>
+      <c r="H2">
+        <v>0.112646999721442</v>
+      </c>
+      <c r="I2">
+        <v>0.89350078905815</v>
+      </c>
+      <c r="J2">
+        <v>0.717321182070777</v>
+      </c>
+      <c r="K2">
+        <v>0.94525170672056902</v>
+      </c>
+      <c r="L2">
+        <v>0.101366367178961</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3">
+        <v>1.8862947472921901E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.105789367870559</v>
+      </c>
+      <c r="G3">
+        <v>0.137342445998758</v>
+      </c>
+      <c r="H3">
+        <v>0.116215574018324</v>
+      </c>
+      <c r="I3">
+        <v>0.90607879400536095</v>
+      </c>
+      <c r="J3">
+        <v>0.72404458280263195</v>
+      </c>
+      <c r="K3">
+        <v>0.951881712191888</v>
+      </c>
+      <c r="L3">
+        <v>0.10641365329310599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>1.8929319652541299E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.106180729098343</v>
+      </c>
+      <c r="G4">
+        <v>0.13758386407039599</v>
+      </c>
+      <c r="H4">
+        <v>0.109894288449189</v>
+      </c>
+      <c r="I4">
+        <v>0.91059228107236401</v>
+      </c>
+      <c r="J4">
+        <v>0.72667313084440599</v>
+      </c>
+      <c r="K4">
+        <v>0.95424959055394099</v>
+      </c>
+      <c r="L4">
+        <v>9.5656191170659502E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>1.9216636318061399E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.106521206885968</v>
+      </c>
+      <c r="G5">
+        <v>0.13862408274921501</v>
+      </c>
+      <c r="H5">
+        <v>0.116640359146061</v>
+      </c>
+      <c r="I5">
+        <v>0.92914755773120405</v>
+      </c>
+      <c r="J5">
+        <v>0.73145401033191504</v>
+      </c>
+      <c r="K5">
+        <v>0.96392300404710896</v>
+      </c>
+      <c r="L5">
+        <v>0.10228867417341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>1.95531600122687E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.10623192944455</v>
+      </c>
+      <c r="G6">
+        <v>0.139832614265301</v>
+      </c>
+      <c r="H6">
+        <v>0.117031279280809</v>
+      </c>
+      <c r="I6">
+        <v>0.94713623841524597</v>
+      </c>
+      <c r="J6">
+        <v>0.73304079786404697</v>
+      </c>
+      <c r="K6">
+        <v>0.97320924698404199</v>
+      </c>
+      <c r="L6">
+        <v>9.9484623518457896E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>1.88307345631482E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.105178173457234</v>
+      </c>
+      <c r="G7">
+        <v>0.13722512365871001</v>
+      </c>
+      <c r="H7">
+        <v>0.113964750656531</v>
+      </c>
+      <c r="I7">
+        <v>0.90926805374410602</v>
+      </c>
+      <c r="J7">
+        <v>0.72171717306256999</v>
+      </c>
+      <c r="K7">
+        <v>0.95355548016049096</v>
+      </c>
+      <c r="L7">
+        <v>0.10035139200233099</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <v>1.87291044787521E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.105215141903014</v>
+      </c>
+      <c r="G8">
+        <v>0.136854318451235</v>
+      </c>
+      <c r="H8">
+        <v>0.114076887281348</v>
+      </c>
+      <c r="I8">
+        <v>0.89242613521596703</v>
+      </c>
+      <c r="J8">
+        <v>0.71682252407601399</v>
+      </c>
+      <c r="K8">
+        <v>0.94468308718636795</v>
+      </c>
+      <c r="L8">
+        <v>0.10454303659340899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>1.8728374349896E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.105114855286409</v>
+      </c>
+      <c r="G9">
+        <v>0.136851650884803</v>
+      </c>
+      <c r="H9">
+        <v>0.112646999721443</v>
+      </c>
+      <c r="I9">
+        <v>0.893500789058147</v>
+      </c>
+      <c r="J9">
+        <v>0.717321182070778</v>
+      </c>
+      <c r="K9">
+        <v>0.717321182070778</v>
+      </c>
+      <c r="L9">
+        <v>0.101366367178964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>1.8862947472921901E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.105789367870559</v>
+      </c>
+      <c r="G10">
+        <v>0.137342445998758</v>
+      </c>
+      <c r="H10">
+        <v>0.116215574018322</v>
+      </c>
+      <c r="I10">
+        <v>0.90607879400536295</v>
+      </c>
+      <c r="J10">
+        <v>0.72404458280263295</v>
+      </c>
+      <c r="K10">
+        <v>0.951881712191889</v>
+      </c>
+      <c r="L10">
+        <v>0.106413653293104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>1.8929319652541299E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.106180729098343</v>
+      </c>
+      <c r="G11">
+        <v>0.13758386407039599</v>
+      </c>
+      <c r="H11">
+        <v>0.109894288449188</v>
+      </c>
+      <c r="I11">
+        <v>0.91059228107236601</v>
+      </c>
+      <c r="J11">
+        <v>0.72667313084440599</v>
+      </c>
+      <c r="K11">
+        <v>0.95424959055394198</v>
+      </c>
+      <c r="L11">
+        <v>9.5656191170657698E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>1.9216636318061399E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.106521206885968</v>
+      </c>
+      <c r="G12">
+        <v>0.13862408274921501</v>
+      </c>
+      <c r="H12">
+        <v>0.11664035914606</v>
+      </c>
+      <c r="I12">
+        <v>0.92914755773120405</v>
+      </c>
+      <c r="J12">
+        <v>0.73145401033191504</v>
+      </c>
+      <c r="K12">
+        <v>0.96392300404710896</v>
+      </c>
+      <c r="L12">
+        <v>0.10228867417341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>1.95531600122687E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.10623192944455</v>
+      </c>
+      <c r="G13">
+        <v>0.139832614265301</v>
+      </c>
+      <c r="H13">
+        <v>0.117031279280809</v>
+      </c>
+      <c r="I13">
+        <v>0.94713623841524697</v>
+      </c>
+      <c r="J13">
+        <v>0.73304079786404697</v>
+      </c>
+      <c r="K13">
+        <v>0.97320924698404199</v>
+      </c>
+      <c r="L13">
+        <v>9.9484623518457493E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>1.88307345631482E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.105178173457234</v>
+      </c>
+      <c r="G14">
+        <v>0.13722512365871001</v>
+      </c>
+      <c r="H14">
+        <v>0.11396475065653</v>
+      </c>
+      <c r="I14">
+        <v>0.90926805374410502</v>
+      </c>
+      <c r="J14">
+        <v>0.72171717306256999</v>
+      </c>
+      <c r="K14">
+        <v>0.95355548016049096</v>
+      </c>
+      <c r="L14">
+        <v>0.10035139200233099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>1.87291044787521E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.105215141903014</v>
+      </c>
+      <c r="G15">
+        <v>0.136854318451235</v>
+      </c>
+      <c r="H15">
+        <v>0.114076887281347</v>
+      </c>
+      <c r="I15">
+        <v>0.89242613521596503</v>
+      </c>
+      <c r="J15">
+        <v>0.71682252407601599</v>
+      </c>
+      <c r="K15">
+        <v>0.94468308718636695</v>
+      </c>
+      <c r="L15">
+        <v>0.10454303659341101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94E7F84-6427-4918-B966-F615EDAF29A4}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2">
+        <v>1.8901796324449101E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.10839234974741099</v>
+      </c>
+      <c r="G2">
+        <v>0.13748380386230599</v>
+      </c>
+      <c r="H2">
+        <v>0.10443962178494801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3">
+        <v>1.91181733921948E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.109309193074863</v>
+      </c>
+      <c r="G3">
+        <v>0.138268483003882</v>
+      </c>
+      <c r="H3">
+        <v>0.104211011593129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>1.9097124966702701E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.109285151072017</v>
+      </c>
+      <c r="G4">
+        <v>0.138192347713984</v>
+      </c>
+      <c r="H4">
+        <v>0.101964897092112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>1.9475141774674701E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.110073222088918</v>
+      </c>
+      <c r="G5">
+        <v>0.13955336532908999</v>
+      </c>
+      <c r="H5">
+        <v>0.104687552398688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>1.9835224099555099E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.11029836449318201</v>
+      </c>
+      <c r="G6">
+        <v>0.14083758056553999</v>
+      </c>
+      <c r="H6">
+        <v>0.10430794213614</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>1.9070057906753299E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.108590954339134</v>
+      </c>
+      <c r="G7">
+        <v>0.13809438043147601</v>
+      </c>
+      <c r="H7">
+        <v>0.102705021311409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <v>1.8944742588086899E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.108480585414367</v>
+      </c>
+      <c r="G8">
+        <v>0.13763990187473599</v>
+      </c>
+      <c r="H8">
+        <v>0.103877797506055</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30E15BF-E414-4825-9644-7D15562F11A0}">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection sqref="A1:K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
@@ -967,7 +2741,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -999,31 +2773,31 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>1.8600137904286301E-2</v>
+        <v>2.27039338633463E-2</v>
       </c>
       <c r="E2">
-        <v>0.10724975913763</v>
+        <v>0.11870767656766899</v>
       </c>
       <c r="F2">
-        <v>0.13638225197792</v>
+        <v>0.15067824615167999</v>
       </c>
       <c r="G2">
-        <v>0.12537509202957101</v>
+        <v>-7.5719112870230101E-2</v>
       </c>
       <c r="H2">
-        <v>0.90286302566528298</v>
+        <v>1.0674823589692199</v>
       </c>
       <c r="I2">
-        <v>0.74062442779541005</v>
+        <v>0.81376775726250405</v>
       </c>
       <c r="J2">
-        <v>0.95019030570983798</v>
+        <v>1.03319037886017</v>
       </c>
       <c r="K2">
-        <v>0.10332053899764999</v>
+        <v>-7.3723657036926904E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1034,31 +2808,31 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>1.93920582532882E-2</v>
+        <v>2.2346540522609599E-2</v>
       </c>
       <c r="E3">
-        <v>0.10693166404962499</v>
+        <v>0.117743979793687</v>
       </c>
       <c r="F3">
-        <v>0.13920384645462</v>
+        <v>0.14948759320629099</v>
       </c>
       <c r="G3">
-        <v>8.2790017127990695E-2</v>
+        <v>-4.70630878523602E-2</v>
       </c>
       <c r="H3">
-        <v>0.94822251796722401</v>
+        <v>1.0616726803037999</v>
       </c>
       <c r="I3">
-        <v>0.73577725887298495</v>
+        <v>0.81178734037312905</v>
       </c>
       <c r="J3">
-        <v>0.97253477573394698</v>
+        <v>1.03037501925454</v>
       </c>
       <c r="K3">
-        <v>4.9799621105194002E-2</v>
+        <v>-4.7047679086911501E-2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1069,31 +2843,31 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>1.9279558211565E-2</v>
+        <v>2.2110152266987801E-2</v>
       </c>
       <c r="E4">
-        <v>0.106855116784572</v>
+        <v>0.11766590262849901</v>
       </c>
       <c r="F4">
-        <v>0.13881292939185999</v>
+        <v>0.148694829321627</v>
       </c>
       <c r="G4">
-        <v>9.2986643314361503E-2</v>
+        <v>-3.9649990054706E-2</v>
       </c>
       <c r="H4">
-        <v>0.93478578329086304</v>
+        <v>1.0466632951933299</v>
       </c>
       <c r="I4">
-        <v>0.73801314830779996</v>
+        <v>0.80930504329153097</v>
       </c>
       <c r="J4">
-        <v>0.96586596965789795</v>
+        <v>1.0230656358187999</v>
       </c>
       <c r="K4">
-        <v>7.6315611600875799E-2</v>
+        <v>-3.9491622085149801E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1104,31 +2878,31 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>1.85307338833808E-2</v>
+        <v>2.22217247174454E-2</v>
       </c>
       <c r="E5">
-        <v>0.10691436380147901</v>
+        <v>0.11789814872386201</v>
       </c>
       <c r="F5">
-        <v>0.13612756133079501</v>
+        <v>0.14906952980889601</v>
       </c>
       <c r="G5">
-        <v>0.13177183270454401</v>
+        <v>-2.1240262367961799E-2</v>
       </c>
       <c r="H5">
-        <v>0.89598459005355802</v>
+        <v>1.05786899122816</v>
       </c>
       <c r="I5">
-        <v>0.73833894729614202</v>
+        <v>0.81404791051053005</v>
       </c>
       <c r="J5">
-        <v>0.94656276702880804</v>
+        <v>1.0285275840871499</v>
       </c>
       <c r="K5">
-        <v>0.116368979215621</v>
+        <v>-2.1826939684021999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1139,31 +2913,31 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>1.8317874521017002E-2</v>
+        <v>2.2297070480747E-2</v>
       </c>
       <c r="E6">
-        <v>0.10622286796569801</v>
+        <v>0.118154057233439</v>
       </c>
       <c r="F6">
-        <v>0.13534022867679499</v>
+        <v>0.14932203615256201</v>
       </c>
       <c r="G6">
-        <v>0.132096618413925</v>
+        <v>-7.0843232520738601E-3</v>
       </c>
       <c r="H6">
-        <v>0.87238347530364901</v>
+        <v>1.0584045744762101</v>
       </c>
       <c r="I6">
-        <v>0.72989773750305098</v>
+        <v>0.81366905575581805</v>
       </c>
       <c r="J6">
-        <v>0.93390226364135698</v>
+        <v>1.02878791520711</v>
       </c>
       <c r="K6">
-        <v>0.12261226773262</v>
+        <v>-6.7479806412866702E-3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1174,31 +2948,31 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>1.8826968967914502E-2</v>
+        <v>2.3099448900072098E-2</v>
       </c>
       <c r="E7">
-        <v>0.10745912790298399</v>
+        <v>0.118978083353217</v>
       </c>
       <c r="F7">
-        <v>0.13720998167991599</v>
+        <v>0.15198502853923501</v>
       </c>
       <c r="G7">
-        <v>0.1346096098423</v>
+        <v>-8.6915449008161505E-2</v>
       </c>
       <c r="H7">
-        <v>0.90531915426254195</v>
+        <v>1.0981598742117</v>
       </c>
       <c r="I7">
-        <v>0.74326837062835605</v>
+        <v>0.82003208638722602</v>
       </c>
       <c r="J7">
-        <v>0.951471447944641</v>
+        <v>1.04793123544042</v>
       </c>
       <c r="K7">
-        <v>0.12540391087531999</v>
+        <v>-8.6735807429254602E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1209,36 +2983,340 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>2.3139267080411301E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.119065321840403</v>
+      </c>
+      <c r="F8">
+        <v>0.15211596589579701</v>
+      </c>
+      <c r="G8">
+        <v>-9.4537532227039395E-2</v>
+      </c>
+      <c r="H8">
+        <v>1.08837114425327</v>
+      </c>
+      <c r="I8">
+        <v>0.81690141247131998</v>
+      </c>
+      <c r="J8">
+        <v>1.04325027881773</v>
+      </c>
+      <c r="K8">
+        <v>-9.2204396454099294E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F0357D-ADF1-4850-83C7-925D0B386CA0}">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>2.06693194245459E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.10533799891147699</v>
+      </c>
+      <c r="F2">
+        <v>0.14376828379216999</v>
+      </c>
+      <c r="G2">
+        <v>2.07533208592478E-2</v>
+      </c>
+      <c r="H2">
+        <v>0.97409987184187996</v>
+      </c>
+      <c r="I2">
+        <v>0.72295833363344797</v>
+      </c>
+      <c r="J2">
+        <v>0.98696498004836997</v>
+      </c>
+      <c r="K2">
+        <v>2.075332088522E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>2.0858715588580799E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.105885374335278</v>
+      </c>
+      <c r="F3">
+        <v>0.14442546724376801</v>
+      </c>
+      <c r="G3">
+        <v>2.24897835270104E-2</v>
+      </c>
+      <c r="H3">
+        <v>0.99113772511144205</v>
+      </c>
+      <c r="I3">
+        <v>0.72984768422717305</v>
+      </c>
+      <c r="J3">
+        <v>0.99555900132108799</v>
+      </c>
+      <c r="K3">
+        <v>2.24897893273651E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>2.0957422366610402E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.10680056743031199</v>
+      </c>
+      <c r="F4">
+        <v>0.14476678613069499</v>
+      </c>
+      <c r="G4">
+        <v>1.4382574036831E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.99247256572313802</v>
+      </c>
+      <c r="I4">
+        <v>0.73490891117624402</v>
+      </c>
+      <c r="J4">
+        <v>0.99622917329454697</v>
+      </c>
+      <c r="K4">
+        <v>1.43825753956378E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>2.1297880155883998E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.10733866035228599</v>
+      </c>
+      <c r="F5">
+        <v>0.14593793254628501</v>
+      </c>
+      <c r="G5">
+        <v>2.0407294191420702E-2</v>
+      </c>
+      <c r="H5">
+        <v>1.0133770146205601</v>
+      </c>
+      <c r="I5">
+        <v>0.74039657854645502</v>
+      </c>
+      <c r="J5">
+        <v>1.0066662876149901</v>
+      </c>
+      <c r="K5">
+        <v>2.0407295700531701E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
+      <c r="D6">
+        <v>2.18038832688515E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.10764759236055001</v>
+      </c>
+      <c r="F6">
+        <v>0.14766138042444099</v>
+      </c>
+      <c r="G6">
+        <v>1.55398503693544E-2</v>
+      </c>
+      <c r="H6">
+        <v>1.03565793031276</v>
+      </c>
+      <c r="I6">
+        <v>0.74181669874859102</v>
+      </c>
+      <c r="J6">
+        <v>1.0176728012051599</v>
+      </c>
+      <c r="K6">
+        <v>1.5539850085707E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>2.0713656900305601E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.10481208922386601</v>
+      </c>
+      <c r="F7">
+        <v>0.14392239888323699</v>
+      </c>
+      <c r="G7">
+        <v>2.5591543306711699E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.98587056231794901</v>
+      </c>
+      <c r="I7">
+        <v>0.72268586939102697</v>
+      </c>
+      <c r="J7">
+        <v>0.99291014815941403</v>
+      </c>
+      <c r="K7">
+        <v>2.5591541443171301E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
       <c r="D8">
-        <v>1.9181117415428099E-2</v>
+        <v>2.0615683061508398E-2</v>
       </c>
       <c r="E8">
-        <v>0.107651688158512</v>
+        <v>0.104790556576179</v>
       </c>
       <c r="F8">
-        <v>0.13848517835140201</v>
+        <v>0.14358162508311501</v>
       </c>
       <c r="G8">
-        <v>0.133815318346023</v>
+        <v>2.4909467899849401E-2</v>
       </c>
       <c r="H8">
-        <v>0.91462945938110296</v>
+        <v>0.97244414984189897</v>
       </c>
       <c r="I8">
-        <v>0.74310398101806596</v>
+        <v>0.71937645065409805</v>
       </c>
       <c r="J8">
-        <v>0.95623934268951405</v>
+        <v>0.98612582860500098</v>
       </c>
       <c r="K8">
-        <v>0.130314141511917</v>
+        <v>2.4909467795114101E-2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K8" xr:uid="{57E2FB0D-8EEE-4299-81B3-0F50034371EB}"/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>